--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-prompt.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -3921,7 +3921,7 @@
     <t>view.message.title.crete</t>
   </si>
   <si>
-    <t>Newly build</t>
+    <t>New</t>
   </si>
   <si>
     <t>新建</t>
